--- a/example_time_table.xlsx
+++ b/example_time_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT_TOP\tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D27FF5-B374-4184-9C37-866A69BC0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A47B09-C438-4358-A555-B98CDC7B6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F1A58891-0994-4FB2-9BE6-A24FD0F9D202}"/>
+    <workbookView xWindow="5400" yWindow="1380" windowWidth="21600" windowHeight="11835" xr2:uid="{F1A58891-0994-4FB2-9BE6-A24FD0F9D202}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="6" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>ENGLISH READING (T19)</t>
   </si>
   <si>
-    <t>T20</t>
-  </si>
-  <si>
     <t>P.T (T21)</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>P.T (T22)</t>
+  </si>
+  <si>
+    <t>MUSIC (T20)</t>
   </si>
 </sst>
 </file>
@@ -577,13 +577,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,7 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="429">
+  <dxfs count="437">
     <dxf>
       <font>
         <b val="0"/>
@@ -1489,6 +1489,31 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1500,6 +1525,34 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1552,6 +1605,31 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1563,6 +1641,34 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1615,17 +1721,13 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
         <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1673,6 +1775,31 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1684,6 +1811,88 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -5553,20 +5762,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72786F5C-51A5-47BA-A43C-A845A5573B96}" name="TIME_TABLE" displayName="TIME_TABLE" ref="B3:L49" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74">
-  <autoFilter ref="B3:L49" xr:uid="{FEC91B34-8F1A-4B22-98D1-E7186100422C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72786F5C-51A5-47BA-A43C-A845A5573B96}" name="TIME_TABLE" displayName="TIME_TABLE" ref="B3:L49" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
+  <autoFilter ref="B3:L49" xr:uid="{72786F5C-51A5-47BA-A43C-A845A5573B96}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4561F2A-0324-4A2C-BD22-86DAF4EDD1CD}" name="PERIOD" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{C4561F2A-0324-4A2C-BD22-86DAF4EDD1CD}" name="PERIOD" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
     <tableColumn id="2" xr3:uid="{4C269CB1-DE07-45CE-8B11-BC485DB52D9F}" name="I 'A'"/>
-    <tableColumn id="3" xr3:uid="{D6A93386-63CE-460A-9522-BCBFAF6F9040}" name="I 'B'" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{D6A93386-63CE-460A-9522-BCBFAF6F9040}" name="I 'B'" dataDxfId="79" totalsRowDxfId="78"/>
     <tableColumn id="4" xr3:uid="{07043388-3EF9-4067-9749-92CF4A8070C9}" name="II 'A'"/>
-    <tableColumn id="5" xr3:uid="{0AB7398A-687F-4B81-95DD-F434E0B8E414}" name="II 'B'" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{42596B1C-5842-4CB6-96A1-2A536049F478}" name="III 'A'" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{0BAB3614-A22D-47CA-AEB0-2709D9DD0423}" name="III 'B'" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{0AB7398A-687F-4B81-95DD-F434E0B8E414}" name="II 'B'" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{42596B1C-5842-4CB6-96A1-2A536049F478}" name="III 'A'" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{0BAB3614-A22D-47CA-AEB0-2709D9DD0423}" name="III 'B'" dataDxfId="73" totalsRowDxfId="72"/>
     <tableColumn id="8" xr3:uid="{C4CBB895-C66E-4A40-A53D-DE88BC7EE42D}" name="IV 'A'"/>
-    <tableColumn id="9" xr3:uid="{2CB410CD-BCA0-4528-B7B1-EB56134F485B}" name="IV 'B'" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{1E090865-9BE4-434E-A913-A90DF138444C}" name="V 'A'" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{72557B76-CB55-4BF7-A624-A476D0A6FEE2}" name="V 'B'" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{2CB410CD-BCA0-4528-B7B1-EB56134F485B}" name="IV 'B'" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{1E090865-9BE4-434E-A913-A90DF138444C}" name="V 'A'" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{72557B76-CB55-4BF7-A624-A476D0A6FEE2}" name="V 'B'" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5795,8 +6004,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI989"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5936,16 +6145,16 @@
       <c r="W3" s="15"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="39"/>
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -5984,7 +6193,7 @@
       <c r="AI4" s="7"/>
     </row>
     <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="13">
@@ -6042,7 +6251,7 @@
       <c r="AI5" s="7"/>
     </row>
     <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13">
         <v>2</v>
       </c>
@@ -6101,7 +6310,7 @@
       <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="13">
         <v>3</v>
       </c>
@@ -6158,7 +6367,7 @@
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="13">
         <v>4</v>
       </c>
@@ -6214,7 +6423,7 @@
       <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -6270,7 +6479,7 @@
       <c r="AI9" s="7"/>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -6326,7 +6535,7 @@
       <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13">
         <v>7</v>
       </c>
@@ -6350,7 +6559,7 @@
         <v>51</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -6374,7 +6583,7 @@
       <c r="AI11" s="7"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="13">
         <v>8</v>
       </c>
@@ -6389,7 +6598,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>46</v>
@@ -6459,7 +6668,7 @@
       <c r="AI13" s="7"/>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13">
@@ -6517,7 +6726,7 @@
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="13">
         <v>2</v>
       </c>
@@ -6531,7 +6740,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>30</v>
@@ -6546,7 +6755,7 @@
         <v>43</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>33</v>
@@ -6573,7 +6782,7 @@
       <c r="AI15" s="7"/>
     </row>
     <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="13">
         <v>3</v>
       </c>
@@ -6584,7 +6793,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>32</v>
@@ -6629,7 +6838,7 @@
       <c r="AI16" s="7"/>
     </row>
     <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="13">
         <v>4</v>
       </c>
@@ -6685,7 +6894,7 @@
       <c r="AI17" s="7"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="13">
         <v>5</v>
       </c>
@@ -6711,7 +6920,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>26</v>
@@ -6741,7 +6950,7 @@
       <c r="AI18" s="7"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="13">
         <v>6</v>
       </c>
@@ -6797,7 +7006,7 @@
       <c r="AI19" s="7"/>
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="13">
         <v>7</v>
       </c>
@@ -6806,7 +7015,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>34</v>
@@ -6845,7 +7054,7 @@
       <c r="AI20" s="7"/>
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="13">
         <v>8</v>
       </c>
@@ -6930,7 +7139,7 @@
       <c r="AI22" s="7"/>
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="13">
@@ -6940,7 +7149,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>40</v>
@@ -6988,7 +7197,7 @@
       <c r="AI23" s="7"/>
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="13">
         <v>2</v>
       </c>
@@ -6999,7 +7208,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>29</v>
@@ -7044,7 +7253,7 @@
       <c r="AI24" s="7"/>
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="13">
         <v>3</v>
       </c>
@@ -7100,7 +7309,7 @@
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="13">
         <v>4</v>
       </c>
@@ -7156,12 +7365,12 @@
       <c r="AI26" s="7"/>
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="13">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>29</v>
@@ -7212,7 +7421,7 @@
       <c r="AI27" s="7"/>
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="13">
         <v>6</v>
       </c>
@@ -7268,7 +7477,7 @@
       <c r="AI28" s="7"/>
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="13">
         <v>7</v>
       </c>
@@ -7280,7 +7489,7 @@
         <v>31</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>46</v>
@@ -7316,7 +7525,7 @@
       <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="13">
         <v>8</v>
       </c>
@@ -7401,7 +7610,7 @@
       <c r="AI31" s="7"/>
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="13">
@@ -7459,12 +7668,12 @@
       <c r="AI32" s="7"/>
     </row>
     <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="13">
         <v>2</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>28</v>
@@ -7479,7 +7688,7 @@
         <v>25</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>30</v>
@@ -7515,7 +7724,7 @@
       <c r="AI33" s="7"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="13">
         <v>3</v>
       </c>
@@ -7523,7 +7732,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>28</v>
@@ -7571,7 +7780,7 @@
       <c r="AI34" s="7"/>
     </row>
     <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="13">
         <v>4</v>
       </c>
@@ -7582,7 +7791,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>26</v>
@@ -7627,7 +7836,7 @@
       <c r="AI35" s="7"/>
     </row>
     <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="13">
         <v>5</v>
       </c>
@@ -7653,13 +7862,13 @@
         <v>32</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -7683,7 +7892,7 @@
       <c r="AI36" s="7"/>
     </row>
     <row r="37" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="13">
         <v>6</v>
       </c>
@@ -7697,7 +7906,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>25</v>
@@ -7739,7 +7948,7 @@
       <c r="AI37" s="7"/>
     </row>
     <row r="38" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="13">
         <v>7</v>
       </c>
@@ -7754,13 +7963,13 @@
         <v>44</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>31</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="30" t="s">
         <v>33</v>
@@ -7787,7 +7996,7 @@
       <c r="AI38" s="7"/>
     </row>
     <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="13">
         <v>8</v>
       </c>
@@ -7872,7 +8081,7 @@
       <c r="AI40" s="7"/>
     </row>
     <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="13">
@@ -7903,7 +8112,7 @@
         <v>43</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>15</v>
@@ -7930,12 +8139,12 @@
       <c r="AI41" s="7"/>
     </row>
     <row r="42" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="13">
         <v>2</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>26</v>
@@ -7986,7 +8195,7 @@
       <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -8042,7 +8251,7 @@
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="13">
         <v>4</v>
       </c>
@@ -8050,7 +8259,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E44" s="36" t="s">
         <v>43</v>
@@ -8098,7 +8307,7 @@
       <c r="AI44" s="7"/>
     </row>
     <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="13">
         <v>5</v>
       </c>
@@ -8112,13 +8321,13 @@
         <v>41</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>30</v>
@@ -8154,7 +8363,7 @@
       <c r="AI45" s="7"/>
     </row>
     <row r="46" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13">
         <v>6</v>
       </c>
@@ -8210,7 +8419,7 @@
       <c r="AI46" s="7"/>
     </row>
     <row r="47" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="13">
         <v>7</v>
       </c>
@@ -8219,7 +8428,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="36" t="s">
         <v>44</v>
@@ -8228,13 +8437,13 @@
         <v>51</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K47" s="36" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -8258,7 +8467,7 @@
       <c r="AI47" s="7"/>
     </row>
     <row r="48" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="13">
         <v>8</v>
       </c>
@@ -8267,13 +8476,13 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" s="17" t="s">
         <v>39</v>
@@ -9264,746 +9473,746 @@
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <conditionalFormatting sqref="C8 E8:L8">
-    <cfRule type="duplicateValues" dxfId="428" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="427" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 E14:H14 K14:L14">
-    <cfRule type="duplicateValues" dxfId="426" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="425" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="424" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18 J18">
-    <cfRule type="duplicateValues" dxfId="423" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="422" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="421" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="420" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:G27 I27:L27">
-    <cfRule type="duplicateValues" dxfId="419" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="418" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="417" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F34 H34:K34 G38 C35">
-    <cfRule type="duplicateValues" dxfId="416" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37 G37:I37 K37:L37">
-    <cfRule type="duplicateValues" dxfId="415" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="414" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="413" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="412" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44 H44:L44 E44:F44">
-    <cfRule type="duplicateValues" dxfId="411" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="410" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="409" priority="298"/>
-    <cfRule type="duplicateValues" dxfId="408" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46 E46:F46 H46:L46">
-    <cfRule type="duplicateValues" dxfId="407" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D19 I19:L19 G19">
-    <cfRule type="duplicateValues" dxfId="406" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23 F23:J23">
-    <cfRule type="duplicateValues" dxfId="405" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5 G5:K5">
-    <cfRule type="duplicateValues" dxfId="404" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16 J16 L16 G16:H16">
-    <cfRule type="duplicateValues" dxfId="403" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17 G17:J17">
-    <cfRule type="duplicateValues" dxfId="402" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E24 G24:H24 J24:L24">
-    <cfRule type="duplicateValues" dxfId="401" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36 G36:H36 J36">
-    <cfRule type="duplicateValues" dxfId="400" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:E43 G43:H43 J43:L43">
-    <cfRule type="duplicateValues" dxfId="399" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:E45 J45:K45 G45:H45">
-    <cfRule type="duplicateValues" dxfId="398" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10 H10:L10">
-    <cfRule type="duplicateValues" dxfId="397" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F11">
-    <cfRule type="duplicateValues" dxfId="396" priority="317"/>
-    <cfRule type="duplicateValues" dxfId="395" priority="318"/>
-    <cfRule type="duplicateValues" dxfId="394" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:F12">
-    <cfRule type="duplicateValues" dxfId="393" priority="316"/>
-    <cfRule type="duplicateValues" dxfId="392" priority="330"/>
-    <cfRule type="duplicateValues" dxfId="391" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F15 H15:J15">
-    <cfRule type="duplicateValues" dxfId="390" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20 H20:L20">
-    <cfRule type="duplicateValues" dxfId="389" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F20 I20">
-    <cfRule type="duplicateValues" dxfId="388" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F21">
-    <cfRule type="duplicateValues" dxfId="387" priority="328"/>
-    <cfRule type="duplicateValues" dxfId="386" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:F21">
-    <cfRule type="duplicateValues" dxfId="385" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F26 H26:K26">
-    <cfRule type="duplicateValues" dxfId="384" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F30">
-    <cfRule type="duplicateValues" dxfId="383" priority="326"/>
-    <cfRule type="duplicateValues" dxfId="382" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30 J30">
-    <cfRule type="duplicateValues" dxfId="381" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38 H38 J38">
-    <cfRule type="duplicateValues" dxfId="380" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38">
-    <cfRule type="duplicateValues" dxfId="379" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F39">
-    <cfRule type="duplicateValues" dxfId="378" priority="323"/>
-    <cfRule type="duplicateValues" dxfId="377" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:F39">
-    <cfRule type="duplicateValues" dxfId="376" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F47 I47">
-    <cfRule type="duplicateValues" dxfId="375" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F48">
-    <cfRule type="duplicateValues" dxfId="374" priority="321"/>
-    <cfRule type="duplicateValues" dxfId="373" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:F48 H48">
-    <cfRule type="duplicateValues" dxfId="372" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:G11 K11:L11">
-    <cfRule type="duplicateValues" dxfId="371" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G28 L28 I28:J28">
-    <cfRule type="duplicateValues" dxfId="370" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:G32 I32:L32">
-    <cfRule type="duplicateValues" dxfId="369" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:G33 J33:L33">
-    <cfRule type="duplicateValues" dxfId="368" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:G35 I35:L35">
-    <cfRule type="duplicateValues" dxfId="367" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:G42 I42:L42">
-    <cfRule type="duplicateValues" dxfId="366" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:H9 J9:K9">
-    <cfRule type="duplicateValues" dxfId="365" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H25 K25:L25">
-    <cfRule type="duplicateValues" dxfId="364" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:H29 J29:L29">
-    <cfRule type="duplicateValues" dxfId="363" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:H29 K29">
-    <cfRule type="duplicateValues" dxfId="362" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:H39 K39:L39">
-    <cfRule type="duplicateValues" dxfId="361" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:I6">
-    <cfRule type="duplicateValues" dxfId="360" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12 K12">
-    <cfRule type="duplicateValues" dxfId="359" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:I47 K47">
-    <cfRule type="duplicateValues" dxfId="358" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:I48 K48">
-    <cfRule type="duplicateValues" dxfId="357" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:K30">
-    <cfRule type="duplicateValues" dxfId="356" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:L7">
-    <cfRule type="duplicateValues" dxfId="355" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:L18">
-    <cfRule type="duplicateValues" dxfId="354" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:L21">
-    <cfRule type="duplicateValues" dxfId="353" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="352" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="351" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="350" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="349" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="348" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="347" priority="314"/>
-    <cfRule type="duplicateValues" dxfId="346" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="345" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="344" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="duplicateValues" dxfId="343" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="342" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="341" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="340" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="339" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="338" priority="285"/>
-    <cfRule type="duplicateValues" dxfId="337" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="336" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="335" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="334" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="333" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="332" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="duplicateValues" dxfId="331" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:H41 L41 J41">
-    <cfRule type="duplicateValues" dxfId="330" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="329" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="328" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="327" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="326" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="325" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="324" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="323" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="322" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="321" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="320" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="342"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="319" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="318" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="317" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="316" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="315" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="313" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="312" priority="283"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="310" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="duplicateValues" dxfId="308" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="duplicateValues" dxfId="305" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="duplicateValues" dxfId="303" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="300" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="299" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="duplicateValues" dxfId="298" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="duplicateValues" dxfId="296" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="duplicateValues" dxfId="294" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="293" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="291" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="duplicateValues" dxfId="288" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="286" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="285" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="duplicateValues" dxfId="284" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="282" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="duplicateValues" dxfId="281" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="duplicateValues" dxfId="278" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="duplicateValues" dxfId="276" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="275" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="duplicateValues" dxfId="273" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29 K29">
-    <cfRule type="duplicateValues" dxfId="271" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="270" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="269" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="266" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="264" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="263" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="262" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="260" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="259" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="257" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="254" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="251" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="249" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="247" priority="319"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="245" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="244" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="240" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="duplicateValues" dxfId="237" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="duplicateValues" dxfId="233" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="duplicateValues" dxfId="232" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="duplicateValues" dxfId="231" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="duplicateValues" dxfId="227" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="duplicateValues" dxfId="226" priority="311"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="duplicateValues" dxfId="224" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="duplicateValues" dxfId="222" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="duplicateValues" dxfId="218" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="duplicateValues" dxfId="217" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="duplicateValues" dxfId="213" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="duplicateValues" dxfId="210" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="duplicateValues" dxfId="207" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="duplicateValues" dxfId="204" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="duplicateValues" dxfId="200" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="duplicateValues" dxfId="199" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="198" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="195" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="193" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="190" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="duplicateValues" dxfId="188" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="187" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="185" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="184" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="183" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="181" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="180" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="178" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="177" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="174" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="173" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="171" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="166" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="duplicateValues" dxfId="163" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="duplicateValues" dxfId="161" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="duplicateValues" dxfId="158" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="duplicateValues" dxfId="155" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="duplicateValues" dxfId="153" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="duplicateValues" dxfId="151" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="duplicateValues" dxfId="149" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="duplicateValues" dxfId="146" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="duplicateValues" dxfId="144" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="143" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="duplicateValues" dxfId="139" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="duplicateValues" dxfId="136" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="duplicateValues" dxfId="134" priority="349"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="duplicateValues" dxfId="132" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="duplicateValues" dxfId="131" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="duplicateValues" dxfId="127" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="123" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="duplicateValues" dxfId="122" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="duplicateValues" dxfId="120" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="duplicateValues" dxfId="119" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="duplicateValues" dxfId="117" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="duplicateValues" dxfId="113" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="duplicateValues" dxfId="112" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="duplicateValues" dxfId="109" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="duplicateValues" dxfId="108" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="duplicateValues" dxfId="104" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="duplicateValues" dxfId="102" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="duplicateValues" dxfId="100" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="duplicateValues" dxfId="99" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="duplicateValues" dxfId="98" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="duplicateValues" dxfId="94" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="duplicateValues" dxfId="93" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48">
-    <cfRule type="duplicateValues" dxfId="91" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 C6:D6">
-    <cfRule type="duplicateValues" dxfId="87" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 I7">
-    <cfRule type="duplicateValues" dxfId="86" priority="351"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="351"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="84" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="82" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="duplicateValues" dxfId="81" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10018,7 +10227,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AI989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -10169,14 +10378,14 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="41"/>
       <c r="AA3" s="42"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="39"/>
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -10215,51 +10424,51 @@
       <c r="AI4" s="7"/>
     </row>
     <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="str" cm="1">
-        <f t="array" ref="C5">RegExpExtract(progress!C5, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="D5" s="20" t="str" cm="1">
-        <f t="array" ref="D5">RegExpExtract(progress!D5, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="E5" s="20" t="str" cm="1">
-        <f t="array" ref="E5">RegExpExtract(progress!E5, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="F5" s="20" t="str" cm="1">
-        <f t="array" ref="F5">RegExpExtract(progress!F5, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="G5" s="20" t="str" cm="1">
-        <f t="array" ref="G5">RegExpExtract(progress!G5, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="H5" s="20" t="str" cm="1">
-        <f t="array" ref="H5">RegExpExtract(progress!H5, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="I5" s="20" t="str" cm="1">
-        <f t="array" ref="I5">RegExpExtract(progress!I5, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J5" s="20" t="str" cm="1">
-        <f t="array" ref="J5">RegExpExtract(progress!J5, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K5" s="20" t="str" cm="1">
-        <f t="array" ref="K5">RegExpExtract(progress!K5, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L5" s="20" t="str" cm="1">
-        <f t="array" ref="L5">RegExpExtract(progress!L5, $O$2)</f>
-        <v>(T10)</v>
+      <c r="C5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">RegExpExtract(progress!C5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">RegExpExtract(progress!D5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">RegExpExtract(progress!E5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">RegExpExtract(progress!F5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">RegExpExtract(progress!G5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">RegExpExtract(progress!H5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">RegExpExtract(progress!I5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">RegExpExtract(progress!J5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">RegExpExtract(progress!K5, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">RegExpExtract(progress!L5, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N5" s="18"/>
       <c r="P5" s="7"/>
@@ -10284,49 +10493,49 @@
       <c r="AI5" s="7"/>
     </row>
     <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="str" cm="1">
-        <f t="array" ref="C6">RegExpExtract(progress!C6, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D6" s="20" t="str" cm="1">
-        <f t="array" ref="D6">RegExpExtract(progress!D6, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="E6" s="20" t="str" cm="1">
-        <f t="array" ref="E6">RegExpExtract(progress!E6, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="F6" s="20" t="str" cm="1">
-        <f t="array" ref="F6">RegExpExtract(progress!F6, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="G6" s="20" t="str" cm="1">
-        <f t="array" ref="G6">RegExpExtract(progress!G6, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H6" s="20" t="str" cm="1">
-        <f t="array" ref="H6">RegExpExtract(progress!H6, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I6" s="20" t="str" cm="1">
-        <f t="array" ref="I6">RegExpExtract(progress!I6, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="J6" s="20" t="str" cm="1">
-        <f t="array" ref="J6">RegExpExtract(progress!J6, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K6" s="20" t="str" cm="1">
-        <f t="array" ref="K6">RegExpExtract(progress!K6, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="L6" s="20" t="str" cm="1">
-        <f t="array" ref="L6">RegExpExtract(progress!L6, $O$2)</f>
-        <v>(T15)</v>
+      <c r="C6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">RegExpExtract(progress!C6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">RegExpExtract(progress!D6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">RegExpExtract(progress!E6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">RegExpExtract(progress!F6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">RegExpExtract(progress!G6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">RegExpExtract(progress!H6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">RegExpExtract(progress!I6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">RegExpExtract(progress!J6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">RegExpExtract(progress!K6, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">RegExpExtract(progress!L6, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="18"/>
@@ -10353,49 +10562,49 @@
       <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="str" cm="1">
-        <f t="array" ref="C7">RegExpExtract(progress!C7, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="D7" s="20" t="str" cm="1">
-        <f t="array" ref="D7">RegExpExtract(progress!D7, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="E7" s="20" t="str" cm="1">
-        <f t="array" ref="E7">RegExpExtract(progress!E7, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="F7" s="20" t="str" cm="1">
-        <f t="array" ref="F7">RegExpExtract(progress!F7, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="G7" s="20" t="str" cm="1">
-        <f t="array" ref="G7">RegExpExtract(progress!G7, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="H7" s="20" t="str" cm="1">
-        <f t="array" ref="H7">RegExpExtract(progress!H7, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I7" s="20" t="str" cm="1">
-        <f t="array" ref="I7">RegExpExtract(progress!I7, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J7" s="20" t="str" cm="1">
-        <f t="array" ref="J7">RegExpExtract(progress!J7, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K7" s="20" t="str" cm="1">
-        <f t="array" ref="K7">RegExpExtract(progress!K7, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L7" s="20" t="str" cm="1">
-        <f t="array" ref="L7">RegExpExtract(progress!L7, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">RegExpExtract(progress!C7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">RegExpExtract(progress!D7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">RegExpExtract(progress!E7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">RegExpExtract(progress!F7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">RegExpExtract(progress!G7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">RegExpExtract(progress!H7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">RegExpExtract(progress!I7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">RegExpExtract(progress!J7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">RegExpExtract(progress!K7, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">RegExpExtract(progress!L7, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="19"/>
       <c r="P7" s="7"/>
@@ -10420,49 +10629,49 @@
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="str" cm="1">
-        <f t="array" ref="C8">RegExpExtract(progress!C8, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="D8" s="20" t="str" cm="1">
-        <f t="array" ref="D8">RegExpExtract(progress!D8, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="E8" s="20" t="str" cm="1">
-        <f t="array" ref="E8">RegExpExtract(progress!E8, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F8" s="20" t="str" cm="1">
-        <f t="array" ref="F8">RegExpExtract(progress!F8, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="G8" s="20" t="str" cm="1">
-        <f t="array" ref="G8">RegExpExtract(progress!G8, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H8" s="20" t="str" cm="1">
-        <f t="array" ref="H8">RegExpExtract(progress!H8, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="I8" s="20" t="str" cm="1">
-        <f t="array" ref="I8">RegExpExtract(progress!I8, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="J8" s="20" t="str" cm="1">
-        <f t="array" ref="J8">RegExpExtract(progress!J8, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="K8" s="20" t="str" cm="1">
-        <f t="array" ref="K8">RegExpExtract(progress!K8, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L8" s="20" t="str" cm="1">
-        <f t="array" ref="L8">RegExpExtract(progress!L8, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">RegExpExtract(progress!C8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">RegExpExtract(progress!D8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">RegExpExtract(progress!E8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">RegExpExtract(progress!F8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">RegExpExtract(progress!G8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">RegExpExtract(progress!H8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">RegExpExtract(progress!I8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">RegExpExtract(progress!J8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">RegExpExtract(progress!K8, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">RegExpExtract(progress!L8, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -10486,49 +10695,49 @@
       <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="str" cm="1">
-        <f t="array" ref="C9">RegExpExtract(progress!C9, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="D9" s="20" t="str" cm="1">
-        <f t="array" ref="D9">RegExpExtract(progress!D9, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="E9" s="20" t="str" cm="1">
-        <f t="array" ref="E9">RegExpExtract(progress!E9, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="F9" s="20" t="str" cm="1">
-        <f t="array" ref="F9">RegExpExtract(progress!F9, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="G9" s="20" t="str" cm="1">
-        <f t="array" ref="G9">RegExpExtract(progress!G9, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="H9" s="20" t="str" cm="1">
-        <f t="array" ref="H9">RegExpExtract(progress!H9, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I9" s="20" t="str" cm="1">
-        <f t="array" ref="I9">RegExpExtract(progress!I9, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J9" s="20" t="str" cm="1">
-        <f t="array" ref="J9">RegExpExtract(progress!J9, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="K9" s="20" t="str" cm="1">
-        <f t="array" ref="K9">RegExpExtract(progress!K9, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="L9" s="20" t="str" cm="1">
-        <f t="array" ref="L9">RegExpExtract(progress!L9, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">RegExpExtract(progress!C9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">RegExpExtract(progress!D9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">RegExpExtract(progress!E9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">RegExpExtract(progress!F9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">RegExpExtract(progress!G9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">RegExpExtract(progress!H9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">RegExpExtract(progress!I9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">RegExpExtract(progress!J9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">RegExpExtract(progress!K9, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">RegExpExtract(progress!L9, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -10552,49 +10761,49 @@
       <c r="AI9" s="7"/>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="str" cm="1">
-        <f t="array" ref="C10">RegExpExtract(progress!C10, $O$2)</f>
-        <v>(T18)</v>
-      </c>
-      <c r="D10" s="20" t="str" cm="1">
-        <f t="array" ref="D10">RegExpExtract(progress!D10, $O$2)</f>
-        <v>(T17)</v>
-      </c>
-      <c r="E10" s="20" t="str" cm="1">
-        <f t="array" ref="E10">RegExpExtract(progress!E10, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="F10" s="20" t="str" cm="1">
-        <f t="array" ref="F10">RegExpExtract(progress!F10, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="G10" s="20" t="str" cm="1">
-        <f t="array" ref="G10">RegExpExtract(progress!G10, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="H10" s="20" t="str" cm="1">
-        <f t="array" ref="H10">RegExpExtract(progress!H10, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="I10" s="20" t="str" cm="1">
-        <f t="array" ref="I10">RegExpExtract(progress!I10, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J10" s="20" t="str" cm="1">
-        <f t="array" ref="J10">RegExpExtract(progress!J10, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K10" s="20" t="str" cm="1">
-        <f t="array" ref="K10">RegExpExtract(progress!K10, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L10" s="20" t="str" cm="1">
-        <f t="array" ref="L10">RegExpExtract(progress!L10, $O$2)</f>
-        <v>(VP)</v>
+      <c r="C10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">RegExpExtract(progress!C10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">RegExpExtract(progress!D10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">RegExpExtract(progress!E10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">RegExpExtract(progress!F10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">RegExpExtract(progress!G10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">RegExpExtract(progress!H10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">RegExpExtract(progress!I10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">RegExpExtract(progress!J10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">RegExpExtract(progress!K10, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">RegExpExtract(progress!L10, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -10618,49 +10827,49 @@
       <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="str" cm="1">
-        <f t="array" ref="C11">RegExpExtract(progress!C11, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D11" s="20" t="str" cm="1">
-        <f t="array" ref="D11">RegExpExtract(progress!D11, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E11" s="20" t="str" cm="1">
-        <f t="array" ref="E11">RegExpExtract(progress!E11, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F11" s="20" t="str" cm="1">
-        <f t="array" ref="F11">RegExpExtract(progress!F11, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G11" s="20" t="str" cm="1">
-        <f t="array" ref="G11">RegExpExtract(progress!G11, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H11" s="20" t="str" cm="1">
-        <f t="array" ref="H11">RegExpExtract(progress!H11, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="I11" s="20" t="str" cm="1">
-        <f t="array" ref="I11">RegExpExtract(progress!I11, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J11" s="20" t="str" cm="1">
-        <f t="array" ref="J11">RegExpExtract(progress!J11, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="K11" s="20" t="str" cm="1">
-        <f t="array" ref="K11">RegExpExtract(progress!K11, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="L11" s="20" t="str" cm="1">
-        <f t="array" ref="L11">RegExpExtract(progress!L11, $O$2)</f>
-        <v>(T21)</v>
+      <c r="C11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">RegExpExtract(progress!C11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">RegExpExtract(progress!D11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">RegExpExtract(progress!E11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">RegExpExtract(progress!F11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">RegExpExtract(progress!G11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">RegExpExtract(progress!H11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I11" ca="1">RegExpExtract(progress!I11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">RegExpExtract(progress!J11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">RegExpExtract(progress!K11, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L11" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">RegExpExtract(progress!L11, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -10684,49 +10893,49 @@
       <c r="AI11" s="7"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="str" cm="1">
-        <f t="array" ref="C12">RegExpExtract(progress!C12, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D12" s="20" t="str" cm="1">
-        <f t="array" ref="D12">RegExpExtract(progress!D12, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E12" s="20" t="str" cm="1">
-        <f t="array" ref="E12">RegExpExtract(progress!E12, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F12" s="20" t="str" cm="1">
-        <f t="array" ref="F12">RegExpExtract(progress!F12, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G12" s="20" t="str" cm="1">
-        <f t="array" ref="G12">RegExpExtract(progress!G12, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="H12" s="20" t="str" cm="1">
-        <f t="array" ref="H12">RegExpExtract(progress!H12, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I12" s="20" t="str" cm="1">
-        <f t="array" ref="I12">RegExpExtract(progress!I12, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="J12" s="20" t="str" cm="1">
-        <f t="array" ref="J12">RegExpExtract(progress!J12, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="K12" s="20" t="str" cm="1">
-        <f t="array" ref="K12">RegExpExtract(progress!K12, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="L12" s="20" t="str" cm="1">
-        <f t="array" ref="L12">RegExpExtract(progress!L12, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">RegExpExtract(progress!C12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">RegExpExtract(progress!D12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">RegExpExtract(progress!E12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">RegExpExtract(progress!F12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">RegExpExtract(progress!G12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">RegExpExtract(progress!H12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">RegExpExtract(progress!I12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">RegExpExtract(progress!J12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">RegExpExtract(progress!K12, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">RegExpExtract(progress!L12, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -10787,51 +10996,51 @@
       <c r="AI13" s="7"/>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="20" t="str" cm="1">
-        <f t="array" ref="C14">RegExpExtract(progress!C14, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="D14" s="20" t="str" cm="1">
-        <f t="array" ref="D14">RegExpExtract(progress!D14, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="E14" s="20" t="str" cm="1">
-        <f t="array" ref="E14">RegExpExtract(progress!E14, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F14" s="20" t="str" cm="1">
-        <f t="array" ref="F14">RegExpExtract(progress!F14, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="G14" s="20" t="str" cm="1">
-        <f t="array" ref="G14">RegExpExtract(progress!G14, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H14" s="20" t="str" cm="1">
-        <f t="array" ref="H14">RegExpExtract(progress!H14, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I14" s="20" t="str" cm="1">
-        <f t="array" ref="I14">RegExpExtract(progress!I14, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="J14" s="20" t="str" cm="1">
-        <f t="array" ref="J14">RegExpExtract(progress!J14, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K14" s="20" t="str" cm="1">
-        <f t="array" ref="K14">RegExpExtract(progress!K14, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="L14" s="20" t="str" cm="1">
-        <f t="array" ref="L14">RegExpExtract(progress!L14, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">RegExpExtract(progress!C14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">RegExpExtract(progress!D14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">RegExpExtract(progress!E14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">RegExpExtract(progress!F14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">RegExpExtract(progress!G14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">RegExpExtract(progress!H14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">RegExpExtract(progress!I14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">RegExpExtract(progress!J14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">RegExpExtract(progress!K14, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">RegExpExtract(progress!L14, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -10855,49 +11064,49 @@
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="str" cm="1">
-        <f t="array" ref="C15">RegExpExtract(progress!C15, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="D15" s="20" t="str" cm="1">
-        <f t="array" ref="D15">RegExpExtract(progress!D15, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="E15" s="20" t="str" cm="1">
-        <f t="array" ref="E15">RegExpExtract(progress!E15, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="F15" s="20" t="str" cm="1">
-        <f t="array" ref="F15">RegExpExtract(progress!F15, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="G15" s="20" t="str" cm="1">
-        <f t="array" ref="G15">RegExpExtract(progress!G15, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="H15" s="20" t="str" cm="1">
-        <f t="array" ref="H15">RegExpExtract(progress!H15, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I15" s="20" t="str" cm="1">
-        <f t="array" ref="I15">RegExpExtract(progress!I15, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J15" s="20" t="str" cm="1">
-        <f t="array" ref="J15">RegExpExtract(progress!J15, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K15" s="20" t="str" cm="1">
-        <f t="array" ref="K15">RegExpExtract(progress!K15, $O$2)</f>
-        <v>(T22)</v>
-      </c>
-      <c r="L15" s="20" t="str" cm="1">
-        <f t="array" ref="L15">RegExpExtract(progress!L15, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">RegExpExtract(progress!C15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">RegExpExtract(progress!D15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">RegExpExtract(progress!E15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">RegExpExtract(progress!F15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">RegExpExtract(progress!G15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">RegExpExtract(progress!H15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">RegExpExtract(progress!I15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">RegExpExtract(progress!J15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">RegExpExtract(progress!K15, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">RegExpExtract(progress!L15, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -10921,49 +11130,49 @@
       <c r="AI15" s="7"/>
     </row>
     <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="20" t="str" cm="1">
-        <f t="array" ref="C16">RegExpExtract(progress!C16, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D16" s="20" t="str" cm="1">
-        <f t="array" ref="D16">RegExpExtract(progress!D16, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="E16" s="20" t="str" cm="1">
-        <f t="array" ref="E16">RegExpExtract(progress!E16, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="F16" s="20" t="str" cm="1">
-        <f t="array" ref="F16">RegExpExtract(progress!F16, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="G16" s="20" t="str" cm="1">
-        <f t="array" ref="G16">RegExpExtract(progress!G16, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H16" s="20" t="str" cm="1">
-        <f t="array" ref="H16">RegExpExtract(progress!H16, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="I16" s="20" t="str" cm="1">
-        <f t="array" ref="I16">RegExpExtract(progress!I16, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="J16" s="20" t="str" cm="1">
-        <f t="array" ref="J16">RegExpExtract(progress!J16, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="K16" s="20" t="str" cm="1">
-        <f t="array" ref="K16">RegExpExtract(progress!K16, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="L16" s="20" t="str" cm="1">
-        <f t="array" ref="L16">RegExpExtract(progress!L16, $O$2)</f>
-        <v>(VP)</v>
+      <c r="C16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">RegExpExtract(progress!C16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">RegExpExtract(progress!D16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">RegExpExtract(progress!E16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">RegExpExtract(progress!F16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">RegExpExtract(progress!G16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">RegExpExtract(progress!H16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">RegExpExtract(progress!I16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">RegExpExtract(progress!J16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">RegExpExtract(progress!K16, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">RegExpExtract(progress!L16, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -10987,49 +11196,49 @@
       <c r="AI16" s="7"/>
     </row>
     <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="20" t="str" cm="1">
-        <f t="array" ref="C17">RegExpExtract(progress!C17, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="D17" s="20" t="str" cm="1">
-        <f t="array" ref="D17">RegExpExtract(progress!D17, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="E17" s="20" t="str" cm="1">
-        <f t="array" ref="E17">RegExpExtract(progress!E17, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="F17" s="20" t="str" cm="1">
-        <f t="array" ref="F17">RegExpExtract(progress!F17, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="G17" s="20" t="str" cm="1">
-        <f t="array" ref="G17">RegExpExtract(progress!G17, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H17" s="20" t="str" cm="1">
-        <f t="array" ref="H17">RegExpExtract(progress!H17, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="I17" s="20" t="str" cm="1">
-        <f t="array" ref="I17">RegExpExtract(progress!I17, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J17" s="20" t="str" cm="1">
-        <f t="array" ref="J17">RegExpExtract(progress!J17, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="K17" s="20" t="str" cm="1">
-        <f t="array" ref="K17">RegExpExtract(progress!K17, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="L17" s="20" t="str" cm="1">
-        <f t="array" ref="L17">RegExpExtract(progress!L17, $O$2)</f>
-        <v>(T19)</v>
+      <c r="C17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">RegExpExtract(progress!C17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">RegExpExtract(progress!D17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">RegExpExtract(progress!E17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">RegExpExtract(progress!F17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">RegExpExtract(progress!G17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">RegExpExtract(progress!H17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">RegExpExtract(progress!I17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">RegExpExtract(progress!J17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">RegExpExtract(progress!K17, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L17" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">RegExpExtract(progress!L17, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -11053,49 +11262,49 @@
       <c r="AI17" s="7"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="20" t="str" cm="1">
-        <f t="array" ref="C18">RegExpExtract(progress!C18, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="D18" s="20" t="str" cm="1">
-        <f t="array" ref="D18">RegExpExtract(progress!D18, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="E18" s="20" t="str" cm="1">
-        <f t="array" ref="E18">RegExpExtract(progress!E18, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="F18" s="20" t="str" cm="1">
-        <f t="array" ref="F18">RegExpExtract(progress!F18, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="G18" s="20" t="str" cm="1">
-        <f t="array" ref="G18">RegExpExtract(progress!G18, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="H18" s="20" t="str" cm="1">
-        <f t="array" ref="H18">RegExpExtract(progress!H18, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I18" s="20" t="str" cm="1">
-        <f t="array" ref="I18">RegExpExtract(progress!I18, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="J18" s="20" t="str" cm="1">
-        <f t="array" ref="J18">RegExpExtract(progress!J18, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="K18" s="20" t="str" cm="1">
-        <f t="array" ref="K18">RegExpExtract(progress!K18, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L18" s="20" t="str" cm="1">
-        <f t="array" ref="L18">RegExpExtract(progress!L18, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">RegExpExtract(progress!C18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">RegExpExtract(progress!D18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">RegExpExtract(progress!E18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">RegExpExtract(progress!F18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">RegExpExtract(progress!G18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">RegExpExtract(progress!H18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">RegExpExtract(progress!I18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">RegExpExtract(progress!J18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">RegExpExtract(progress!K18, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L18" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">RegExpExtract(progress!L18, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -11119,49 +11328,49 @@
       <c r="AI18" s="7"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="13">
         <v>6</v>
       </c>
-      <c r="C19" s="20" t="str" cm="1">
-        <f t="array" ref="C19">RegExpExtract(progress!C19, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D19" s="20" t="str" cm="1">
-        <f t="array" ref="D19">RegExpExtract(progress!D19, $O$2)</f>
-        <v>(T18)</v>
-      </c>
-      <c r="E19" s="20" t="str" cm="1">
-        <f t="array" ref="E19">RegExpExtract(progress!E19, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="F19" s="20" t="str" cm="1">
-        <f t="array" ref="F19">RegExpExtract(progress!F19, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="G19" s="20" t="str" cm="1">
-        <f t="array" ref="G19">RegExpExtract(progress!G19, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H19" s="20" t="str" cm="1">
-        <f t="array" ref="H19">RegExpExtract(progress!H19, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="I19" s="20" t="str" cm="1">
-        <f t="array" ref="I19">RegExpExtract(progress!I19, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J19" s="20" t="str" cm="1">
-        <f t="array" ref="J19">RegExpExtract(progress!J19, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="K19" s="20" t="str" cm="1">
-        <f t="array" ref="K19">RegExpExtract(progress!K19, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L19" s="20" t="str" cm="1">
-        <f t="array" ref="L19">RegExpExtract(progress!L19, $O$2)</f>
-        <v>(T16)</v>
+      <c r="C19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">RegExpExtract(progress!C19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">RegExpExtract(progress!D19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">RegExpExtract(progress!E19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">RegExpExtract(progress!F19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">RegExpExtract(progress!G19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">RegExpExtract(progress!H19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">RegExpExtract(progress!I19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">RegExpExtract(progress!J19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">RegExpExtract(progress!K19, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L19" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">RegExpExtract(progress!L19, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -11185,49 +11394,49 @@
       <c r="AI19" s="7"/>
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="13">
         <v>7</v>
       </c>
-      <c r="C20" s="20" t="str" cm="1">
-        <f t="array" ref="C20">RegExpExtract(progress!C20, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D20" s="20" t="str" cm="1">
-        <f t="array" ref="D20">RegExpExtract(progress!D20, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E20" s="20" t="str" cm="1">
-        <f t="array" ref="E20">RegExpExtract(progress!E20, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F20" s="20" t="str" cm="1">
-        <f t="array" ref="F20">RegExpExtract(progress!F20, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G20" s="20" t="str" cm="1">
-        <f t="array" ref="G20">RegExpExtract(progress!G20, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="H20" s="20" t="str" cm="1">
-        <f t="array" ref="H20">RegExpExtract(progress!H20, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I20" s="20" t="str" cm="1">
-        <f t="array" ref="I20">RegExpExtract(progress!I20, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="J20" s="20" t="str" cm="1">
-        <f t="array" ref="J20">RegExpExtract(progress!J20, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K20" s="20" t="str" cm="1">
-        <f t="array" ref="K20">RegExpExtract(progress!K20, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L20" s="20" t="str" cm="1">
-        <f t="array" ref="L20">RegExpExtract(progress!L20, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">RegExpExtract(progress!C20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">RegExpExtract(progress!D20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">RegExpExtract(progress!E20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">RegExpExtract(progress!F20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">RegExpExtract(progress!G20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">RegExpExtract(progress!H20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">RegExpExtract(progress!I20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">RegExpExtract(progress!J20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">RegExpExtract(progress!K20, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">RegExpExtract(progress!L20, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -11251,49 +11460,49 @@
       <c r="AI20" s="7"/>
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="13">
         <v>8</v>
       </c>
-      <c r="C21" s="20" t="str" cm="1">
-        <f t="array" ref="C21">RegExpExtract(progress!C21, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D21" s="20" t="str" cm="1">
-        <f t="array" ref="D21">RegExpExtract(progress!D21, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E21" s="20" t="str" cm="1">
-        <f t="array" ref="E21">RegExpExtract(progress!E21, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F21" s="20" t="str" cm="1">
-        <f t="array" ref="F21">RegExpExtract(progress!F21, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G21" s="20" t="str" cm="1">
-        <f t="array" ref="G21">RegExpExtract(progress!G21, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="H21" s="20" t="str" cm="1">
-        <f t="array" ref="H21">RegExpExtract(progress!H21, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="I21" s="20" t="str" cm="1">
-        <f t="array" ref="I21">RegExpExtract(progress!I21, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="J21" s="20" t="str" cm="1">
-        <f t="array" ref="J21">RegExpExtract(progress!J21, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K21" s="20" t="str" cm="1">
-        <f t="array" ref="K21">RegExpExtract(progress!K21, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="L21" s="20" t="str" cm="1">
-        <f t="array" ref="L21">RegExpExtract(progress!L21, $O$2)</f>
-        <v>(T10)</v>
+      <c r="C21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">RegExpExtract(progress!C21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">RegExpExtract(progress!D21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">RegExpExtract(progress!E21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">RegExpExtract(progress!F21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">RegExpExtract(progress!G21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">RegExpExtract(progress!H21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">RegExpExtract(progress!I21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">RegExpExtract(progress!J21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">RegExpExtract(progress!K21, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L21" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">RegExpExtract(progress!L21, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -11354,51 +11563,51 @@
       <c r="AI22" s="7"/>
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="13">
         <v>1</v>
       </c>
-      <c r="C23" s="20" t="str" cm="1">
-        <f t="array" ref="C23">RegExpExtract(progress!C23, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="D23" s="20" t="str" cm="1">
-        <f t="array" ref="D23">RegExpExtract(progress!D23, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="E23" s="20" t="str" cm="1">
-        <f t="array" ref="E23">RegExpExtract(progress!E23, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F23" s="20" t="str" cm="1">
-        <f t="array" ref="F23">RegExpExtract(progress!F23, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="G23" s="20" t="str" cm="1">
-        <f t="array" ref="G23">RegExpExtract(progress!G23, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H23" s="20" t="str" cm="1">
-        <f t="array" ref="H23">RegExpExtract(progress!H23, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="I23" s="20" t="str" cm="1">
-        <f t="array" ref="I23">RegExpExtract(progress!I23, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J23" s="20" t="str" cm="1">
-        <f t="array" ref="J23">RegExpExtract(progress!J23, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K23" s="20" t="str" cm="1">
-        <f t="array" ref="K23">RegExpExtract(progress!K23, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="L23" s="20" t="str" cm="1">
-        <f t="array" ref="L23">RegExpExtract(progress!L23, $O$2)</f>
-        <v>(T14)</v>
+      <c r="C23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">RegExpExtract(progress!C23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">RegExpExtract(progress!D23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">RegExpExtract(progress!E23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">RegExpExtract(progress!F23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">RegExpExtract(progress!G23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">RegExpExtract(progress!H23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">RegExpExtract(progress!I23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">RegExpExtract(progress!J23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">RegExpExtract(progress!K23, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L23" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">RegExpExtract(progress!L23, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -11422,49 +11631,49 @@
       <c r="AI23" s="7"/>
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="13">
         <v>2</v>
       </c>
-      <c r="C24" s="20" t="str" cm="1">
-        <f t="array" ref="C24">RegExpExtract(progress!C24, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="D24" s="20" t="str" cm="1">
-        <f t="array" ref="D24">RegExpExtract(progress!D24, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="E24" s="20" t="str" cm="1">
-        <f t="array" ref="E24">RegExpExtract(progress!E24, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="F24" s="20" t="str" cm="1">
-        <f t="array" ref="F24">RegExpExtract(progress!F24, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="G24" s="20" t="str" cm="1">
-        <f t="array" ref="G24">RegExpExtract(progress!G24, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H24" s="20" t="str" cm="1">
-        <f t="array" ref="H24">RegExpExtract(progress!H24, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="I24" s="20" t="str" cm="1">
-        <f t="array" ref="I24">RegExpExtract(progress!I24, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J24" s="20" t="str" cm="1">
-        <f t="array" ref="J24">RegExpExtract(progress!J24, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K24" s="20" t="str" cm="1">
-        <f t="array" ref="K24">RegExpExtract(progress!K24, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L24" s="20" t="str" cm="1">
-        <f t="array" ref="L24">RegExpExtract(progress!L24, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">RegExpExtract(progress!C24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">RegExpExtract(progress!D24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">RegExpExtract(progress!E24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">RegExpExtract(progress!F24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">RegExpExtract(progress!G24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">RegExpExtract(progress!H24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">RegExpExtract(progress!I24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">RegExpExtract(progress!J24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">RegExpExtract(progress!K24, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L24" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">RegExpExtract(progress!L24, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -11488,49 +11697,49 @@
       <c r="AI24" s="7"/>
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="13">
         <v>3</v>
       </c>
-      <c r="C25" s="20" t="str" cm="1">
-        <f t="array" ref="C25">RegExpExtract(progress!C25, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D25" s="20" t="str" cm="1">
-        <f t="array" ref="D25">RegExpExtract(progress!D25, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="E25" s="20" t="str" cm="1">
-        <f t="array" ref="E25">RegExpExtract(progress!E25, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="F25" s="20" t="str" cm="1">
-        <f t="array" ref="F25">RegExpExtract(progress!F25, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="G25" s="20" t="str" cm="1">
-        <f t="array" ref="G25">RegExpExtract(progress!G25, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="H25" s="20" t="str" cm="1">
-        <f t="array" ref="H25">RegExpExtract(progress!H25, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I25" s="20" t="str" cm="1">
-        <f t="array" ref="I25">RegExpExtract(progress!I25, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="J25" s="20" t="str" cm="1">
-        <f t="array" ref="J25">RegExpExtract(progress!J25, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="K25" s="20" t="str" cm="1">
-        <f t="array" ref="K25">RegExpExtract(progress!K25, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L25" s="20" t="str" cm="1">
-        <f t="array" ref="L25">RegExpExtract(progress!L25, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">RegExpExtract(progress!C25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">RegExpExtract(progress!D25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">RegExpExtract(progress!E25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">RegExpExtract(progress!F25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">RegExpExtract(progress!G25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">RegExpExtract(progress!H25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">RegExpExtract(progress!I25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">RegExpExtract(progress!J25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">RegExpExtract(progress!K25, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L25" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">RegExpExtract(progress!L25, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -11554,49 +11763,49 @@
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="20" t="str" cm="1">
-        <f t="array" ref="C26">RegExpExtract(progress!C26, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="D26" s="20" t="str" cm="1">
-        <f t="array" ref="D26">RegExpExtract(progress!D26, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="E26" s="20" t="str" cm="1">
-        <f t="array" ref="E26">RegExpExtract(progress!E26, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="F26" s="20" t="str" cm="1">
-        <f t="array" ref="F26">RegExpExtract(progress!F26, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="G26" s="20" t="str" cm="1">
-        <f t="array" ref="G26">RegExpExtract(progress!G26, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="H26" s="20" t="str" cm="1">
-        <f t="array" ref="H26">RegExpExtract(progress!H26, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I26" s="20" t="str" cm="1">
-        <f t="array" ref="I26">RegExpExtract(progress!I26, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J26" s="20" t="str" cm="1">
-        <f t="array" ref="J26">RegExpExtract(progress!J26, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="K26" s="20" t="str" cm="1">
-        <f t="array" ref="K26">RegExpExtract(progress!K26, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L26" s="20" t="str" cm="1">
-        <f t="array" ref="L26">RegExpExtract(progress!L26, $O$2)</f>
-        <v>(T10)</v>
+      <c r="C26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">RegExpExtract(progress!C26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">RegExpExtract(progress!D26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">RegExpExtract(progress!E26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">RegExpExtract(progress!F26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">RegExpExtract(progress!G26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">RegExpExtract(progress!H26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">RegExpExtract(progress!I26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">RegExpExtract(progress!J26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">RegExpExtract(progress!K26, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">RegExpExtract(progress!L26, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -11620,49 +11829,49 @@
       <c r="AI26" s="7"/>
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="13">
         <v>5</v>
       </c>
-      <c r="C27" s="20" t="str" cm="1">
-        <f t="array" ref="C27">RegExpExtract(progress!C27, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D27" s="20" t="str" cm="1">
-        <f t="array" ref="D27">RegExpExtract(progress!D27, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="E27" s="20" t="str" cm="1">
-        <f t="array" ref="E27">RegExpExtract(progress!E27, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="F27" s="20" t="str" cm="1">
-        <f t="array" ref="F27">RegExpExtract(progress!F27, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="G27" s="20" t="str" cm="1">
-        <f t="array" ref="G27">RegExpExtract(progress!G27, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H27" s="20" t="str" cm="1">
-        <f t="array" ref="H27">RegExpExtract(progress!H27, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="I27" s="20" t="str" cm="1">
-        <f t="array" ref="I27">RegExpExtract(progress!I27, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J27" s="20" t="str" cm="1">
-        <f t="array" ref="J27">RegExpExtract(progress!J27, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K27" s="20" t="str" cm="1">
-        <f t="array" ref="K27">RegExpExtract(progress!K27, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="L27" s="20" t="str" cm="1">
-        <f t="array" ref="L27">RegExpExtract(progress!L27, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">RegExpExtract(progress!C27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">RegExpExtract(progress!D27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">RegExpExtract(progress!E27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">RegExpExtract(progress!F27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">RegExpExtract(progress!G27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">RegExpExtract(progress!H27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">RegExpExtract(progress!I27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">RegExpExtract(progress!J27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">RegExpExtract(progress!K27, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L27" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">RegExpExtract(progress!L27, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -11686,49 +11895,49 @@
       <c r="AI27" s="7"/>
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="13">
         <v>6</v>
       </c>
-      <c r="C28" s="20" t="str" cm="1">
-        <f t="array" ref="C28">RegExpExtract(progress!C28, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="D28" s="20" t="str" cm="1">
-        <f t="array" ref="D28">RegExpExtract(progress!D28, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="E28" s="20" t="str" cm="1">
-        <f t="array" ref="E28">RegExpExtract(progress!E28, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="F28" s="20" t="str" cm="1">
-        <f t="array" ref="F28">RegExpExtract(progress!F28, $O$2)</f>
-        <v>(VM)</v>
-      </c>
-      <c r="G28" s="20" t="str" cm="1">
-        <f t="array" ref="G28">RegExpExtract(progress!G28, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H28" s="20" t="str" cm="1">
-        <f t="array" ref="H28">RegExpExtract(progress!H28, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I28" s="20" t="str" cm="1">
-        <f t="array" ref="I28">RegExpExtract(progress!I28, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J28" s="20" t="str" cm="1">
-        <f t="array" ref="J28">RegExpExtract(progress!J28, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="K28" s="20" t="str" cm="1">
-        <f t="array" ref="K28">RegExpExtract(progress!K28, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="L28" s="20" t="str" cm="1">
-        <f t="array" ref="L28">RegExpExtract(progress!L28, $O$2)</f>
-        <v>(VP)</v>
+      <c r="C28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">RegExpExtract(progress!C28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">RegExpExtract(progress!D28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">RegExpExtract(progress!E28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">RegExpExtract(progress!F28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">RegExpExtract(progress!G28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">RegExpExtract(progress!H28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">RegExpExtract(progress!I28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">RegExpExtract(progress!J28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">RegExpExtract(progress!K28, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L28" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">RegExpExtract(progress!L28, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -11752,49 +11961,49 @@
       <c r="AI28" s="7"/>
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="13">
         <v>7</v>
       </c>
-      <c r="C29" s="20" t="str" cm="1">
-        <f t="array" ref="C29">RegExpExtract(progress!C29, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D29" s="20" t="str" cm="1">
-        <f t="array" ref="D29">RegExpExtract(progress!D29, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E29" s="20" t="str" cm="1">
-        <f t="array" ref="E29">RegExpExtract(progress!E29, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F29" s="20" t="str" cm="1">
-        <f t="array" ref="F29">RegExpExtract(progress!F29, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G29" s="20" t="str" cm="1">
-        <f t="array" ref="G29">RegExpExtract(progress!G29, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="H29" s="20" t="str" cm="1">
-        <f t="array" ref="H29">RegExpExtract(progress!H29, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="I29" s="20" t="str" cm="1">
-        <f t="array" ref="I29">RegExpExtract(progress!I29, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="J29" s="20" t="str" cm="1">
-        <f t="array" ref="J29">RegExpExtract(progress!J29, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K29" s="20" t="str" cm="1">
-        <f t="array" ref="K29">RegExpExtract(progress!K29, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="L29" s="20" t="str" cm="1">
-        <f t="array" ref="L29">RegExpExtract(progress!L29, $O$2)</f>
-        <v>(T19)</v>
+      <c r="C29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">RegExpExtract(progress!C29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">RegExpExtract(progress!D29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">RegExpExtract(progress!E29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F29" ca="1">RegExpExtract(progress!F29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">RegExpExtract(progress!G29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">RegExpExtract(progress!H29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">RegExpExtract(progress!I29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">RegExpExtract(progress!J29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">RegExpExtract(progress!K29, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L29" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">RegExpExtract(progress!L29, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -11818,49 +12027,49 @@
       <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="13">
         <v>8</v>
       </c>
-      <c r="C30" s="20" t="str" cm="1">
-        <f t="array" ref="C30">RegExpExtract(progress!C30, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D30" s="20" t="str" cm="1">
-        <f t="array" ref="D30">RegExpExtract(progress!D30, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E30" s="20" t="str" cm="1">
-        <f t="array" ref="E30">RegExpExtract(progress!E30, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F30" s="20" t="str" cm="1">
-        <f t="array" ref="F30">RegExpExtract(progress!F30, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G30" s="20" t="str" cm="1">
-        <f t="array" ref="G30">RegExpExtract(progress!G30, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="H30" s="20" t="str" cm="1">
-        <f t="array" ref="H30">RegExpExtract(progress!H30, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I30" s="20" t="str" cm="1">
-        <f t="array" ref="I30">RegExpExtract(progress!I30, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="J30" s="20" t="str" cm="1">
-        <f t="array" ref="J30">RegExpExtract(progress!J30, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="K30" s="20" t="str" cm="1">
-        <f t="array" ref="K30">RegExpExtract(progress!K30, $O$2)</f>
-        <v>(T15)</v>
-      </c>
-      <c r="L30" s="20" t="str" cm="1">
-        <f t="array" ref="L30">RegExpExtract(progress!L30, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">RegExpExtract(progress!C30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">RegExpExtract(progress!D30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E30" ca="1">RegExpExtract(progress!E30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F30" ca="1">RegExpExtract(progress!F30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G30" ca="1">RegExpExtract(progress!G30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">RegExpExtract(progress!H30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">RegExpExtract(progress!I30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">RegExpExtract(progress!J30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">RegExpExtract(progress!K30, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L30" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">RegExpExtract(progress!L30, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -11921,51 +12130,51 @@
       <c r="AI31" s="7"/>
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="str" cm="1">
-        <f t="array" ref="C32">RegExpExtract(progress!C32, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="D32" s="20" t="str" cm="1">
-        <f t="array" ref="D32">RegExpExtract(progress!D32, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="E32" s="20" t="str" cm="1">
-        <f t="array" ref="E32">RegExpExtract(progress!E32, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="F32" s="20" t="str" cm="1">
-        <f t="array" ref="F32">RegExpExtract(progress!F32, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="G32" s="20" t="str" cm="1">
-        <f t="array" ref="G32">RegExpExtract(progress!G32, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H32" s="20" t="str" cm="1">
-        <f t="array" ref="H32">RegExpExtract(progress!H32, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="I32" s="20" t="str" cm="1">
-        <f t="array" ref="I32">RegExpExtract(progress!I32, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="J32" s="20" t="str" cm="1">
-        <f t="array" ref="J32">RegExpExtract(progress!J32, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K32" s="20" t="str" cm="1">
-        <f t="array" ref="K32">RegExpExtract(progress!K32, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L32" s="20" t="str" cm="1">
-        <f t="array" ref="L32">RegExpExtract(progress!L32, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">RegExpExtract(progress!C32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">RegExpExtract(progress!D32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E32" ca="1">RegExpExtract(progress!E32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F32" ca="1">RegExpExtract(progress!F32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">RegExpExtract(progress!G32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">RegExpExtract(progress!H32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">RegExpExtract(progress!I32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">RegExpExtract(progress!J32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">RegExpExtract(progress!K32, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L32" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1">RegExpExtract(progress!L32, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -11989,49 +12198,49 @@
       <c r="AI32" s="7"/>
     </row>
     <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="13">
         <v>2</v>
       </c>
-      <c r="C33" s="20" t="str" cm="1">
-        <f t="array" ref="C33">RegExpExtract(progress!C33, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="D33" s="20" t="str" cm="1">
-        <f t="array" ref="D33">RegExpExtract(progress!D33, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="E33" s="20" t="str" cm="1">
-        <f t="array" ref="E33">RegExpExtract(progress!E33, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="F33" s="20" t="str" cm="1">
-        <f t="array" ref="F33">RegExpExtract(progress!F33, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="G33" s="20" t="str" cm="1">
-        <f t="array" ref="G33">RegExpExtract(progress!G33, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H33" s="20" t="str" cm="1">
-        <f t="array" ref="H33">RegExpExtract(progress!H33, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="I33" s="20" t="str" cm="1">
-        <f t="array" ref="I33">RegExpExtract(progress!I33, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="J33" s="20" t="str" cm="1">
-        <f t="array" ref="J33">RegExpExtract(progress!J33, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="K33" s="20" t="str" cm="1">
-        <f t="array" ref="K33">RegExpExtract(progress!K33, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L33" s="20" t="str" cm="1">
-        <f t="array" ref="L33">RegExpExtract(progress!L33, $O$2)</f>
-        <v>(T11)</v>
+      <c r="C33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">RegExpExtract(progress!C33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">RegExpExtract(progress!D33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E33" ca="1">RegExpExtract(progress!E33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F33" ca="1">RegExpExtract(progress!F33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">RegExpExtract(progress!G33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">RegExpExtract(progress!H33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">RegExpExtract(progress!I33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">RegExpExtract(progress!J33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">RegExpExtract(progress!K33, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L33" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">RegExpExtract(progress!L33, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -12055,49 +12264,49 @@
       <c r="AI33" s="7"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="13">
         <v>3</v>
       </c>
-      <c r="C34" s="20" t="str" cm="1">
-        <f t="array" ref="C34">RegExpExtract(progress!C34, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D34" s="20" t="str" cm="1">
-        <f t="array" ref="D34">RegExpExtract(progress!D34, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="E34" s="20" t="str" cm="1">
-        <f t="array" ref="E34">RegExpExtract(progress!E34, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="F34" s="20" t="str" cm="1">
-        <f t="array" ref="F34">RegExpExtract(progress!F34, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="G34" s="20" t="str" cm="1">
-        <f t="array" ref="G34">RegExpExtract(progress!G34, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="H34" s="20" t="str" cm="1">
-        <f t="array" ref="H34">RegExpExtract(progress!H34, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I34" s="20" t="str" cm="1">
-        <f t="array" ref="I34">RegExpExtract(progress!I34, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J34" s="20" t="str" cm="1">
-        <f t="array" ref="J34">RegExpExtract(progress!J34, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="K34" s="20" t="str" cm="1">
-        <f t="array" ref="K34">RegExpExtract(progress!K34, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L34" s="20" t="str" cm="1">
-        <f t="array" ref="L34">RegExpExtract(progress!L34, $O$2)</f>
-        <v>(VP)</v>
+      <c r="C34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">RegExpExtract(progress!C34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">RegExpExtract(progress!D34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E34" ca="1">RegExpExtract(progress!E34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F34" ca="1">RegExpExtract(progress!F34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G34" ca="1">RegExpExtract(progress!G34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">RegExpExtract(progress!H34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">RegExpExtract(progress!I34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">RegExpExtract(progress!J34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">RegExpExtract(progress!K34, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L34" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">RegExpExtract(progress!L34, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -12121,49 +12330,49 @@
       <c r="AI34" s="7"/>
     </row>
     <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="13">
         <v>4</v>
       </c>
-      <c r="C35" s="20" t="str" cm="1">
-        <f t="array" ref="C35">RegExpExtract(progress!C35, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="D35" s="20" t="str" cm="1">
-        <f t="array" ref="D35">RegExpExtract(progress!D35, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="E35" s="20" t="str" cm="1">
-        <f t="array" ref="E35">RegExpExtract(progress!E35, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F35" s="20" t="str" cm="1">
-        <f t="array" ref="F35">RegExpExtract(progress!F35, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="G35" s="20" t="str" cm="1">
-        <f t="array" ref="G35">RegExpExtract(progress!G35, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="H35" s="20" t="str" cm="1">
-        <f t="array" ref="H35">RegExpExtract(progress!H35, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="I35" s="20" t="str" cm="1">
-        <f t="array" ref="I35">RegExpExtract(progress!I35, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J35" s="20" t="str" cm="1">
-        <f t="array" ref="J35">RegExpExtract(progress!J35, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K35" s="20" t="str" cm="1">
-        <f t="array" ref="K35">RegExpExtract(progress!K35, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="L35" s="20" t="str" cm="1">
-        <f t="array" ref="L35">RegExpExtract(progress!L35, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">RegExpExtract(progress!C35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">RegExpExtract(progress!D35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E35" ca="1">RegExpExtract(progress!E35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F35" ca="1">RegExpExtract(progress!F35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G35" ca="1">RegExpExtract(progress!G35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">RegExpExtract(progress!H35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">RegExpExtract(progress!I35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">RegExpExtract(progress!J35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">RegExpExtract(progress!K35, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L35" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">RegExpExtract(progress!L35, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -12187,49 +12396,49 @@
       <c r="AI35" s="7"/>
     </row>
     <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="13">
         <v>5</v>
       </c>
-      <c r="C36" s="20" t="str" cm="1">
-        <f t="array" ref="C36">RegExpExtract(progress!C36, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="D36" s="20" t="str" cm="1">
-        <f t="array" ref="D36">RegExpExtract(progress!D36, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="E36" s="20" t="str" cm="1">
-        <f t="array" ref="E36">RegExpExtract(progress!E36, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F36" s="20" t="str" cm="1">
-        <f t="array" ref="F36">RegExpExtract(progress!F36, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="G36" s="20" t="str" cm="1">
-        <f t="array" ref="G36">RegExpExtract(progress!G36, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H36" s="20" t="str" cm="1">
-        <f t="array" ref="H36">RegExpExtract(progress!H36, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="I36" s="20" t="str" cm="1">
-        <f t="array" ref="I36">RegExpExtract(progress!I36, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="J36" s="20" t="str" cm="1">
-        <f t="array" ref="J36">RegExpExtract(progress!J36, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="K36" s="20" t="str" cm="1">
-        <f t="array" ref="K36">RegExpExtract(progress!K36, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="L36" s="20" t="str" cm="1">
-        <f t="array" ref="L36">RegExpExtract(progress!L36, $O$2)</f>
-        <v/>
+      <c r="C36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">RegExpExtract(progress!C36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">RegExpExtract(progress!D36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">RegExpExtract(progress!E36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F36" ca="1">RegExpExtract(progress!F36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">RegExpExtract(progress!G36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">RegExpExtract(progress!H36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">RegExpExtract(progress!I36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">RegExpExtract(progress!J36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">RegExpExtract(progress!K36, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L36" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1">RegExpExtract(progress!L36, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -12253,49 +12462,49 @@
       <c r="AI36" s="7"/>
     </row>
     <row r="37" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="13">
         <v>6</v>
       </c>
-      <c r="C37" s="20" t="str" cm="1">
-        <f t="array" ref="C37">RegExpExtract(progress!C37, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="D37" s="20" t="str" cm="1">
-        <f t="array" ref="D37">RegExpExtract(progress!D37, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="E37" s="20" t="str" cm="1">
-        <f t="array" ref="E37">RegExpExtract(progress!E37, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="F37" s="20" t="str" cm="1">
-        <f t="array" ref="F37">RegExpExtract(progress!F37, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G37" s="20" t="str" cm="1">
-        <f t="array" ref="G37">RegExpExtract(progress!G37, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H37" s="20" t="str" cm="1">
-        <f t="array" ref="H37">RegExpExtract(progress!H37, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I37" s="20" t="str" cm="1">
-        <f t="array" ref="I37">RegExpExtract(progress!I37, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="J37" s="20" t="str" cm="1">
-        <f t="array" ref="J37">RegExpExtract(progress!J37, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="K37" s="20" t="str" cm="1">
-        <f t="array" ref="K37">RegExpExtract(progress!K37, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L37" s="20" t="str" cm="1">
-        <f t="array" ref="L37">RegExpExtract(progress!L37, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">RegExpExtract(progress!C37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">RegExpExtract(progress!D37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">RegExpExtract(progress!E37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">RegExpExtract(progress!F37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">RegExpExtract(progress!G37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">RegExpExtract(progress!H37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">RegExpExtract(progress!I37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">RegExpExtract(progress!J37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">RegExpExtract(progress!K37, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L37" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">RegExpExtract(progress!L37, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -12319,49 +12528,49 @@
       <c r="AI37" s="7"/>
     </row>
     <row r="38" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="13">
         <v>7</v>
       </c>
-      <c r="C38" s="20" t="str" cm="1">
-        <f t="array" ref="C38">RegExpExtract(progress!C38, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D38" s="20" t="str" cm="1">
-        <f t="array" ref="D38">RegExpExtract(progress!D38, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E38" s="20" t="str" cm="1">
-        <f t="array" ref="E38">RegExpExtract(progress!E38, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F38" s="20" t="str" cm="1">
-        <f t="array" ref="F38">RegExpExtract(progress!F38, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G38" s="20" t="str" cm="1">
-        <f t="array" ref="G38">RegExpExtract(progress!G38, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H38" s="20" t="str" cm="1">
-        <f t="array" ref="H38">RegExpExtract(progress!H38, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I38" s="20" t="str" cm="1">
-        <f t="array" ref="I38">RegExpExtract(progress!I38, $O$2)</f>
-        <v/>
-      </c>
-      <c r="J38" s="20" t="str" cm="1">
-        <f t="array" ref="J38">RegExpExtract(progress!J38, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="K38" s="20" t="str" cm="1">
-        <f t="array" ref="K38">RegExpExtract(progress!K38, $O$2)</f>
-        <v>(T22)</v>
-      </c>
-      <c r="L38" s="20" t="str" cm="1">
-        <f t="array" ref="L38">RegExpExtract(progress!L38, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">RegExpExtract(progress!C38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">RegExpExtract(progress!D38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">RegExpExtract(progress!E38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F38" ca="1">RegExpExtract(progress!F38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">RegExpExtract(progress!G38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">RegExpExtract(progress!H38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">RegExpExtract(progress!I38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">RegExpExtract(progress!J38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">RegExpExtract(progress!K38, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L38" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">RegExpExtract(progress!L38, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -12385,49 +12594,49 @@
       <c r="AI38" s="7"/>
     </row>
     <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="13">
         <v>8</v>
       </c>
-      <c r="C39" s="20" t="str" cm="1">
-        <f t="array" ref="C39">RegExpExtract(progress!C39, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D39" s="20" t="str" cm="1">
-        <f t="array" ref="D39">RegExpExtract(progress!D39, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E39" s="20" t="str" cm="1">
-        <f t="array" ref="E39">RegExpExtract(progress!E39, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F39" s="20" t="str" cm="1">
-        <f t="array" ref="F39">RegExpExtract(progress!F39, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G39" s="20" t="str" cm="1">
-        <f t="array" ref="G39">RegExpExtract(progress!G39, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="H39" s="20" t="str" cm="1">
-        <f t="array" ref="H39">RegExpExtract(progress!H39, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="I39" s="20" t="str" cm="1">
-        <f t="array" ref="I39">RegExpExtract(progress!I39, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J39" s="20" t="str" cm="1">
-        <f t="array" ref="J39">RegExpExtract(progress!J39, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K39" s="20" t="str" cm="1">
-        <f t="array" ref="K39">RegExpExtract(progress!K39, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="L39" s="20" t="str" cm="1">
-        <f t="array" ref="L39">RegExpExtract(progress!L39, $O$2)</f>
-        <v>(T10)</v>
+      <c r="C39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">RegExpExtract(progress!C39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">RegExpExtract(progress!D39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">RegExpExtract(progress!E39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F39" ca="1">RegExpExtract(progress!F39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">RegExpExtract(progress!G39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">RegExpExtract(progress!H39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">RegExpExtract(progress!I39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">RegExpExtract(progress!J39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">RegExpExtract(progress!K39, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L39" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">RegExpExtract(progress!L39, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
@@ -12492,51 +12701,51 @@
       <c r="AI40" s="7"/>
     </row>
     <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="13">
         <v>1</v>
       </c>
-      <c r="C41" s="20" t="str" cm="1">
-        <f t="array" ref="C41">RegExpExtract(progress!C41, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="D41" s="20" t="str" cm="1">
-        <f t="array" ref="D41">RegExpExtract(progress!D41, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="E41" s="20" t="str" cm="1">
-        <f t="array" ref="E41">RegExpExtract(progress!E41, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="F41" s="20" t="str" cm="1">
-        <f t="array" ref="F41">RegExpExtract(progress!F41, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="G41" s="20" t="str" cm="1">
-        <f t="array" ref="G41">RegExpExtract(progress!G41, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="H41" s="20" t="str" cm="1">
-        <f t="array" ref="H41">RegExpExtract(progress!H41, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I41" s="20" t="str" cm="1">
-        <f t="array" ref="I41">RegExpExtract(progress!I41, $O$2)</f>
-        <v>(T6)</v>
-      </c>
-      <c r="J41" s="20" t="str" cm="1">
-        <f t="array" ref="J41">RegExpExtract(progress!J41, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="K41" s="20" t="str" cm="1">
-        <f t="array" ref="K41">RegExpExtract(progress!K41, $O$2)</f>
-        <v/>
-      </c>
-      <c r="L41" s="20" t="str" cm="1">
-        <f t="array" ref="L41">RegExpExtract(progress!L41, $O$2)</f>
-        <v>(VP)</v>
+      <c r="C41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">RegExpExtract(progress!C41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">RegExpExtract(progress!D41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">RegExpExtract(progress!E41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">RegExpExtract(progress!F41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">RegExpExtract(progress!G41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">RegExpExtract(progress!H41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I41" ca="1">RegExpExtract(progress!I41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">RegExpExtract(progress!J41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">RegExpExtract(progress!K41, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L41" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1">RegExpExtract(progress!L41, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7" t="s">
@@ -12564,49 +12773,49 @@
       <c r="AI41" s="7"/>
     </row>
     <row r="42" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="13">
         <v>2</v>
       </c>
-      <c r="C42" s="20" t="str" cm="1">
-        <f t="array" ref="C42">RegExpExtract(progress!C42, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="D42" s="20" t="str" cm="1">
-        <f t="array" ref="D42">RegExpExtract(progress!D42, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="E42" s="20" t="str" cm="1">
-        <f t="array" ref="E42">RegExpExtract(progress!E42, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="F42" s="20" t="str" cm="1">
-        <f t="array" ref="F42">RegExpExtract(progress!F42, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="G42" s="20" t="str" cm="1">
-        <f t="array" ref="G42">RegExpExtract(progress!G42, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="H42" s="20" t="str" cm="1">
-        <f t="array" ref="H42">RegExpExtract(progress!H42, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="I42" s="20" t="str" cm="1">
-        <f t="array" ref="I42">RegExpExtract(progress!I42, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="J42" s="20" t="str" cm="1">
-        <f t="array" ref="J42">RegExpExtract(progress!J42, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="K42" s="20" t="str" cm="1">
-        <f t="array" ref="K42">RegExpExtract(progress!K42, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L42" s="20" t="str" cm="1">
-        <f t="array" ref="L42">RegExpExtract(progress!L42, $O$2)</f>
-        <v>(T9)</v>
+      <c r="C42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">RegExpExtract(progress!C42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">RegExpExtract(progress!D42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">RegExpExtract(progress!E42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">RegExpExtract(progress!F42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G42" ca="1">RegExpExtract(progress!G42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">RegExpExtract(progress!H42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I42" ca="1">RegExpExtract(progress!I42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J42" ca="1">RegExpExtract(progress!J42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">RegExpExtract(progress!K42, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L42" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1">RegExpExtract(progress!L42, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7" t="s">
@@ -12632,49 +12841,49 @@
       <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="20" t="str" cm="1">
-        <f t="array" ref="C43">RegExpExtract(progress!C43, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="D43" s="20" t="str" cm="1">
-        <f t="array" ref="D43">RegExpExtract(progress!D43, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="E43" s="20" t="str" cm="1">
-        <f t="array" ref="E43">RegExpExtract(progress!E43, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F43" s="20" t="str" cm="1">
-        <f t="array" ref="F43">RegExpExtract(progress!F43, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="G43" s="20" t="str" cm="1">
-        <f t="array" ref="G43">RegExpExtract(progress!G43, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="H43" s="20" t="str" cm="1">
-        <f t="array" ref="H43">RegExpExtract(progress!H43, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="I43" s="20" t="str" cm="1">
-        <f t="array" ref="I43">RegExpExtract(progress!I43, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="J43" s="20" t="str" cm="1">
-        <f t="array" ref="J43">RegExpExtract(progress!J43, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K43" s="20" t="str" cm="1">
-        <f t="array" ref="K43">RegExpExtract(progress!K43, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="L43" s="20" t="str" cm="1">
-        <f t="array" ref="L43">RegExpExtract(progress!L43, $O$2)</f>
-        <v>(T13)</v>
+      <c r="C43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">RegExpExtract(progress!C43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">RegExpExtract(progress!D43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">RegExpExtract(progress!E43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">RegExpExtract(progress!F43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G43" ca="1">RegExpExtract(progress!G43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">RegExpExtract(progress!H43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">RegExpExtract(progress!I43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">RegExpExtract(progress!J43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">RegExpExtract(progress!K43, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L43" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">RegExpExtract(progress!L43, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7" t="s">
@@ -12702,49 +12911,49 @@
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="13">
         <v>4</v>
       </c>
-      <c r="C44" s="20" t="str" cm="1">
-        <f t="array" ref="C44">RegExpExtract(progress!C44, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="D44" s="20" t="str" cm="1">
-        <f t="array" ref="D44">RegExpExtract(progress!D44, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E44" s="20" t="str" cm="1">
-        <f t="array" ref="E44">RegExpExtract(progress!E44, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="F44" s="20" t="str" cm="1">
-        <f t="array" ref="F44">RegExpExtract(progress!F44, $O$2)</f>
-        <v>(T16)</v>
-      </c>
-      <c r="G44" s="20" t="str" cm="1">
-        <f t="array" ref="G44">RegExpExtract(progress!G44, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="H44" s="20" t="str" cm="1">
-        <f t="array" ref="H44">RegExpExtract(progress!H44, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="I44" s="20" t="str" cm="1">
-        <f t="array" ref="I44">RegExpExtract(progress!I44, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="J44" s="20" t="str" cm="1">
-        <f t="array" ref="J44">RegExpExtract(progress!J44, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="K44" s="20" t="str" cm="1">
-        <f t="array" ref="K44">RegExpExtract(progress!K44, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L44" s="20" t="str" cm="1">
-        <f t="array" ref="L44">RegExpExtract(progress!L44, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">RegExpExtract(progress!C44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">RegExpExtract(progress!D44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">RegExpExtract(progress!E44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">RegExpExtract(progress!F44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G44" ca="1">RegExpExtract(progress!G44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">RegExpExtract(progress!H44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">RegExpExtract(progress!I44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">RegExpExtract(progress!J44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">RegExpExtract(progress!K44, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L44" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1">RegExpExtract(progress!L44, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7" t="s">
@@ -12772,49 +12981,49 @@
       <c r="AI44" s="7"/>
     </row>
     <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="13">
         <v>5</v>
       </c>
-      <c r="C45" s="20" t="str" cm="1">
-        <f t="array" ref="C45">RegExpExtract(progress!C45, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="D45" s="20" t="str" cm="1">
-        <f t="array" ref="D45">RegExpExtract(progress!D45, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="E45" s="20" t="str" cm="1">
-        <f t="array" ref="E45">RegExpExtract(progress!E45, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="F45" s="20" t="str" cm="1">
-        <f t="array" ref="F45">RegExpExtract(progress!F45, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="G45" s="20" t="str" cm="1">
-        <f t="array" ref="G45">RegExpExtract(progress!G45, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="H45" s="20" t="str" cm="1">
-        <f t="array" ref="H45">RegExpExtract(progress!H45, $O$2)</f>
-        <v/>
-      </c>
-      <c r="I45" s="20" t="str" cm="1">
-        <f t="array" ref="I45">RegExpExtract(progress!I45, $O$2)</f>
-        <v>(T4)</v>
-      </c>
-      <c r="J45" s="20" t="str" cm="1">
-        <f t="array" ref="J45">RegExpExtract(progress!J45, $O$2)</f>
-        <v>(T14)</v>
-      </c>
-      <c r="K45" s="20" t="str" cm="1">
-        <f t="array" ref="K45">RegExpExtract(progress!K45, $O$2)</f>
-        <v>(T9)</v>
-      </c>
-      <c r="L45" s="20" t="str" cm="1">
-        <f t="array" ref="L45">RegExpExtract(progress!L45, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">RegExpExtract(progress!C45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">RegExpExtract(progress!D45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">RegExpExtract(progress!E45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">RegExpExtract(progress!F45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G45" ca="1">RegExpExtract(progress!G45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H45" ca="1">RegExpExtract(progress!H45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I45" ca="1">RegExpExtract(progress!I45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J45" ca="1">RegExpExtract(progress!J45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K45" ca="1">RegExpExtract(progress!K45, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L45" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L45" ca="1">RegExpExtract(progress!L45, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -12838,49 +13047,49 @@
       <c r="AI45" s="7"/>
     </row>
     <row r="46" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13">
         <v>6</v>
       </c>
-      <c r="C46" s="20" t="str" cm="1">
-        <f t="array" ref="C46">RegExpExtract(progress!C46, $O$2)</f>
-        <v>(T17)</v>
-      </c>
-      <c r="D46" s="20" t="str" cm="1">
-        <f t="array" ref="D46">RegExpExtract(progress!D46, $O$2)</f>
-        <v>(T11)</v>
-      </c>
-      <c r="E46" s="20" t="str" cm="1">
-        <f t="array" ref="E46">RegExpExtract(progress!E46, $O$2)</f>
-        <v>(VM)</v>
-      </c>
-      <c r="F46" s="20" t="str" cm="1">
-        <f t="array" ref="F46">RegExpExtract(progress!F46, $O$2)</f>
-        <v>(T5)</v>
-      </c>
-      <c r="G46" s="20" t="str" cm="1">
-        <f t="array" ref="G46">RegExpExtract(progress!G46, $O$2)</f>
-        <v>(T12)</v>
-      </c>
-      <c r="H46" s="20" t="str" cm="1">
-        <f t="array" ref="H46">RegExpExtract(progress!H46, $O$2)</f>
-        <v>(T1)</v>
-      </c>
-      <c r="I46" s="20" t="str" cm="1">
-        <f t="array" ref="I46">RegExpExtract(progress!I46, $O$2)</f>
-        <v>(T7)</v>
-      </c>
-      <c r="J46" s="20" t="str" cm="1">
-        <f t="array" ref="J46">RegExpExtract(progress!J46, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="K46" s="20" t="str" cm="1">
-        <f t="array" ref="K46">RegExpExtract(progress!K46, $O$2)</f>
-        <v>(T3)</v>
-      </c>
-      <c r="L46" s="20" t="str" cm="1">
-        <f t="array" ref="L46">RegExpExtract(progress!L46, $O$2)</f>
-        <v>(T10)</v>
+      <c r="C46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">RegExpExtract(progress!C46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">RegExpExtract(progress!D46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">RegExpExtract(progress!E46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F46" ca="1">RegExpExtract(progress!F46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G46" ca="1">RegExpExtract(progress!G46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H46" ca="1">RegExpExtract(progress!H46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I46" ca="1">RegExpExtract(progress!I46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J46" ca="1">RegExpExtract(progress!J46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1">RegExpExtract(progress!K46, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L46" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L46" ca="1">RegExpExtract(progress!L46, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -12904,49 +13113,49 @@
       <c r="AI46" s="7"/>
     </row>
     <row r="47" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="13">
         <v>7</v>
       </c>
-      <c r="C47" s="20" t="str" cm="1">
-        <f t="array" ref="C47">RegExpExtract(progress!C47, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D47" s="20" t="str" cm="1">
-        <f t="array" ref="D47">RegExpExtract(progress!D47, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E47" s="20" t="str" cm="1">
-        <f t="array" ref="E47">RegExpExtract(progress!E47, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F47" s="20" t="str" cm="1">
-        <f t="array" ref="F47">RegExpExtract(progress!F47, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G47" s="20" t="str" cm="1">
-        <f t="array" ref="G47">RegExpExtract(progress!G47, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="H47" s="20" t="str" cm="1">
-        <f t="array" ref="H47">RegExpExtract(progress!H47, $O$2)</f>
-        <v>(T13)</v>
-      </c>
-      <c r="I47" s="20" t="str" cm="1">
-        <f t="array" ref="I47">RegExpExtract(progress!I47, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="J47" s="20" t="str" cm="1">
-        <f t="array" ref="J47">RegExpExtract(progress!J47, $O$2)</f>
-        <v/>
-      </c>
-      <c r="K47" s="20" t="str" cm="1">
-        <f t="array" ref="K47">RegExpExtract(progress!K47, $O$2)</f>
-        <v>(T8)</v>
-      </c>
-      <c r="L47" s="20" t="str" cm="1">
-        <f t="array" ref="L47">RegExpExtract(progress!L47, $O$2)</f>
-        <v>(T22)</v>
+      <c r="C47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">RegExpExtract(progress!C47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D47" ca="1">RegExpExtract(progress!D47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">RegExpExtract(progress!E47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F47" ca="1">RegExpExtract(progress!F47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G47" ca="1">RegExpExtract(progress!G47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H47" ca="1">RegExpExtract(progress!H47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I47" ca="1">RegExpExtract(progress!I47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J47" ca="1">RegExpExtract(progress!J47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1">RegExpExtract(progress!K47, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L47" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L47" ca="1">RegExpExtract(progress!L47, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -12970,49 +13179,49 @@
       <c r="AI47" s="7"/>
     </row>
     <row r="48" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="13">
         <v>8</v>
       </c>
-      <c r="C48" s="20" t="str" cm="1">
-        <f t="array" ref="C48">RegExpExtract(progress!C48, $O$2)</f>
-        <v/>
-      </c>
-      <c r="D48" s="20" t="str" cm="1">
-        <f t="array" ref="D48">RegExpExtract(progress!D48, $O$2)</f>
-        <v/>
-      </c>
-      <c r="E48" s="20" t="str" cm="1">
-        <f t="array" ref="E48">RegExpExtract(progress!E48, $O$2)</f>
-        <v/>
-      </c>
-      <c r="F48" s="20" t="str" cm="1">
-        <f t="array" ref="F48">RegExpExtract(progress!F48, $O$2)</f>
-        <v/>
-      </c>
-      <c r="G48" s="20" t="str" cm="1">
-        <f t="array" ref="G48">RegExpExtract(progress!G48, $O$2)</f>
-        <v/>
-      </c>
-      <c r="H48" s="20" t="str" cm="1">
-        <f t="array" ref="H48">RegExpExtract(progress!H48, $O$2)</f>
-        <v>(T19)</v>
-      </c>
-      <c r="I48" s="20" t="str" cm="1">
-        <f t="array" ref="I48">RegExpExtract(progress!I48, $O$2)</f>
-        <v>(T21)</v>
-      </c>
-      <c r="J48" s="20" t="str" cm="1">
-        <f t="array" ref="J48">RegExpExtract(progress!J48, $O$2)</f>
-        <v>(T10)</v>
-      </c>
-      <c r="K48" s="20" t="str" cm="1">
-        <f t="array" ref="K48">RegExpExtract(progress!K48, $O$2)</f>
-        <v>(T2)</v>
-      </c>
-      <c r="L48" s="20" t="str" cm="1">
-        <f t="array" ref="L48">RegExpExtract(progress!L48, $O$2)</f>
-        <v>(T6)</v>
+      <c r="C48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">RegExpExtract(progress!C48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">RegExpExtract(progress!D48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">RegExpExtract(progress!E48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="F48" ca="1">RegExpExtract(progress!F48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="G48" ca="1">RegExpExtract(progress!G48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="H48" ca="1">RegExpExtract(progress!H48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I48" ca="1">RegExpExtract(progress!I48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="J48" ca="1">RegExpExtract(progress!J48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1">RegExpExtract(progress!K48, $O$2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L48" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="L48" ca="1">RegExpExtract(progress!L48, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
@@ -13041,9 +13250,9 @@
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="11" t="str" cm="1">
-        <f t="array" ref="C49">RegExpExtract(progress!C49, $O$2)</f>
-        <v/>
+      <c r="C49" s="11" t="e" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">RegExpExtract(progress!C49, $O$2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -13997,16 +14206,16 @@
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="65" priority="395"/>
